--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinja\Desktop\DP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinja\Desktop\DP0\DP+\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4046C4F-993A-486F-852C-451EA1A86E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8900E3-FF37-4311-A0C3-3706F26AA0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -7384,7 +7384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7400,9 +7400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7713,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+    <sheetView tabSelected="1" topLeftCell="A1129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C938" sqref="C938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34817,7 +34814,7 @@
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A935" s="9" t="s">
+      <c r="A935" s="8" t="s">
         <v>2192</v>
       </c>
       <c r="B935" t="s">
@@ -34846,7 +34843,7 @@
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A936" s="9" t="s">
+      <c r="A936" s="8" t="s">
         <v>2192</v>
       </c>
       <c r="B936" t="s">
@@ -34875,7 +34872,7 @@
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A937" s="9" t="s">
+      <c r="A937" s="8" t="s">
         <v>2192</v>
       </c>
       <c r="B937" t="s">
